--- a/data/trans_bre/P37-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P37-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P37-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P37-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,18%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,98; 3,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 20,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,34; 10,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 21,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,48; 22,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 226,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,77; 87,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 99,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 4,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,44; 1,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,94; 5,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 9,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,47; 37,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,45; 6,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,64; 33,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 31,54</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,98%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,41; 5,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 4,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 6,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,66; 14,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 44,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; 26,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 52,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,69; 62,3</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,54%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 7,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 5,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,69; 2,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 35,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 64,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,78; 39,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,05; 19,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,41; 128,81</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 5,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 4,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 5,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 5,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 48,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,78; 31,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,55; 38,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,46; 16,62</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 3,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 2,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,73; 12,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 28,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,15; 15,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 23,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,85; 42,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P37-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P37-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,51</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,22</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>75,3%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>19,41%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 3,29</t>
+          <t>-3,91; 3,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 20,84</t>
+          <t>-5,42; 3,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 10,6</t>
+          <t>-3,25; 4,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 21,76</t>
+          <t>1,1; 10,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,48; 22,58</t>
+          <t>-23,49; 29,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 226,36</t>
+          <t>-23,19; 20,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,77; 87,92</t>
+          <t>-17,33; 34,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 99,17</t>
+          <t>3,21; 36,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>14,28</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,59%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>66,23%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 4,46</t>
+          <t>-1,41; 5,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,14</t>
+          <t>-2,38; 4,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,02</t>
+          <t>0,22; 6,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 9,39</t>
+          <t>7,29; 25,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 37,54</t>
+          <t>-9,7; 44,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 6,15</t>
+          <t>-12,43; 26,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 33,73</t>
+          <t>1,27; 52,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 31,54</t>
+          <t>26,21; 213,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>55,76%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,52</t>
+          <t>-0,71; 7,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,18</t>
+          <t>-2,7; 5,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,8</t>
+          <t>-4,69; 2,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,21</t>
+          <t>0,17; 46,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 44,67</t>
+          <t>-5,37; 64,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 26,3</t>
+          <t>-15,78; 39,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 52,34</t>
+          <t>-25,05; 19,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 62,3</t>
+          <t>0,66; 180,71</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,61</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,92%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,54%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,24</t>
+          <t>-0,63; 5,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,42</t>
+          <t>-2,36; 4,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 2,9</t>
+          <t>-1,29; 5,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,79; 35,05</t>
+          <t>-6,87; 5,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 64,1</t>
+          <t>-4,38; 48,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 39,18</t>
+          <t>-12,78; 31,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 19,35</t>
+          <t>-7,55; 38,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 128,81</t>
+          <t>-17,99; 14,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>10,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>34,6%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,74</t>
+          <t>0,26; 3,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,74</t>
+          <t>-1,34; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,41</t>
+          <t>-0,33; 3,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,59</t>
+          <t>4,11; 22,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 48,52</t>
+          <t>1,67; 28,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 31,21</t>
+          <t>-7,15; 15,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 38,22</t>
+          <t>-1,99; 23,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 16,62</t>
+          <t>13,85; 90,85</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,64</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>14,22%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,84%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>20,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,26; 3,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 2,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 3,45</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,73; 12,77</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 28,25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 15,63</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 23,28</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>10,85; 42,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P37-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P37-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 3,88</t>
+          <t>-4,01; 3,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,53</t>
+          <t>-5,94; 3,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,99</t>
+          <t>-3,4; 4,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,53</t>
+          <t>1,88; 10,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 29,42</t>
+          <t>-23,01; 25,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 20,63</t>
+          <t>-25,99; 16,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 34,02</t>
+          <t>-18,18; 32,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 36,94</t>
+          <t>5,49; 38,63</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 5,52</t>
+          <t>-0,96; 5,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 4,18</t>
+          <t>-2,53; 4,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 6,8</t>
+          <t>0,09; 7,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 25,07</t>
+          <t>7,42; 25,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 44,67</t>
+          <t>-6,41; 44,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 26,3</t>
+          <t>-12,83; 31,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 52,34</t>
+          <t>0,58; 55,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,21; 213,16</t>
+          <t>26,42; 211,55</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 7,24</t>
+          <t>-0,65; 6,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,42</t>
+          <t>-2,69; 5,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 2,9</t>
+          <t>-4,56; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 46,41</t>
+          <t>0,16; 41,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 64,1</t>
+          <t>-3,87; 65,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 39,18</t>
+          <t>-14,65; 39,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 19,35</t>
+          <t>-25,22; 21,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 180,71</t>
+          <t>0,5; 148,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 5,74</t>
+          <t>-0,63; 5,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,74</t>
+          <t>-2,84; 4,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,41</t>
+          <t>-1,39; 5,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 5,09</t>
+          <t>-7,06; 4,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 48,52</t>
+          <t>-4,22; 47,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 31,21</t>
+          <t>-14,46; 28,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 38,22</t>
+          <t>-7,99; 41,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,99; 14,89</t>
+          <t>-18,58; 13,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 3,74</t>
+          <t>0,3; 3,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,57</t>
+          <t>-1,33; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,45</t>
+          <t>-0,27; 3,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 22,39</t>
+          <t>4,57; 22,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 28,25</t>
+          <t>2,02; 29,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 15,63</t>
+          <t>-6,97; 14,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 23,28</t>
+          <t>-1,74; 23,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,85; 90,85</t>
+          <t>14,35; 91,46</t>
         </is>
       </c>
     </row>
